--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan Maloney\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08611425-0838-453E-94C9-5D3E73E60D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D7177E-9CFA-4C0C-9403-9CF671BBCF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C3CFF37-315B-499C-B756-FD75FCDDF3BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Project Plan</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Wk 16 03/09</t>
+  </si>
+  <si>
+    <t>Wk 17 10/09</t>
+  </si>
+  <si>
+    <t>Wk 18 17/09</t>
+  </si>
+  <si>
+    <t>Wk 19 24/09</t>
   </si>
 </sst>
 </file>
@@ -298,9 +307,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -312,6 +318,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F49CA6-5EB1-4B75-BF20-59E65A11475F}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,33 +649,35 @@
     <col min="6" max="6" width="9.44140625" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="17" width="8.88671875" style="10"/>
-    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="10" max="16" width="8.88671875" style="9"/>
+    <col min="17" max="17" width="10" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="21" max="21" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -694,85 +705,94 @@
       <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,79 +802,88 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="S12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="S13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="S14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -863,97 +892,109 @@
       <c r="H15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="S16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="S17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="S18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="S19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="S21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="S22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="S23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="S24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan Maloney\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytekuraschool-my.sharepoint.com/personal/jordan_maloney_mytekura_school_nz/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D7177E-9CFA-4C0C-9403-9CF671BBCF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{E6D7177E-9CFA-4C0C-9403-9CF671BBCF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D21F7982-2452-4497-BA0E-0B100FDFFACC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C3CFF37-315B-499C-B756-FD75FCDDF3BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Project Plan</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Wk 19 24/09</t>
+  </si>
+  <si>
+    <t>Wk 20 01/10</t>
+  </si>
+  <si>
+    <t>Wk 21 08/10</t>
   </si>
 </sst>
 </file>
@@ -635,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F49CA6-5EB1-4B75-BF20-59E65A11475F}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,10 +658,13 @@
     <col min="10" max="16" width="8.88671875" style="9"/>
     <col min="17" max="17" width="10" style="9" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="21" max="21" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.77734375" customWidth="1"/>
+    <col min="23" max="23" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -667,7 +676,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -677,7 +686,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -738,16 +747,22 @@
       <c r="T3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -758,11 +773,11 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -773,11 +788,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -788,11 +803,11 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +817,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -813,11 +828,11 @@
         <v>35</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -828,11 +843,11 @@
         <v>35</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -843,11 +858,11 @@
       <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -855,11 +870,11 @@
       <c r="Q12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -867,11 +882,11 @@
       <c r="Q13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -879,11 +894,11 @@
       <c r="Q14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -892,11 +907,11 @@
       <c r="H15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -904,11 +919,11 @@
       <c r="S16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -916,11 +931,11 @@
       <c r="S17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -928,11 +943,11 @@
       <c r="S18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -940,61 +955,70 @@
       <c r="S19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="U20" t="s">
+      <c r="U20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="U21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="U22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="U23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="U24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="U25" t="s">
+      <c r="W25" t="s">
         <v>33</v>
       </c>
     </row>
